--- a/spec/ConvSpec-048-Codes-v1.7.xlsx
+++ b/spec/ConvSpec-048-Codes-v1.7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\share\BF 2.0 Bib specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\share\BF 2.0 Bib specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -645,14 +645,14 @@
     <t>Any code not listed below should be ignored</t>
   </si>
   <si>
-    <t>Field 048 - Instrument Codes - v1.7, 01/04/2021</t>
+    <t>Field 048 - Instrument Codes - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,21 +662,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,13 +729,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,26 +1044,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.54296875" style="2" customWidth="1"/>
     <col min="2" max="16384" width="35" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1065,7 +1070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>173</v>
       </c>
@@ -1155,12 +1160,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1240,12 +1245,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1339,12 +1344,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1424,12 +1429,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1542,12 +1547,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1627,12 +1632,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1767,12 +1772,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1822,23 +1827,23 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -1923,11 +1928,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1955,7 +1960,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -2034,12 +2039,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2161,12 +2166,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4" t="s">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3" t="s">
         <v>166</v>
       </c>
     </row>
